--- a/bin/check.xlsx
+++ b/bin/check.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>monster.level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,31 +26,210 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>monster.c9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster.c10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0,0,0,0],[?,?,?,?]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop.fixedgoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopgoods.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingcurvemesh.build_mesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mesh.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingcurvemesh.building_mesh1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingcurvemesh.updateing_mesh1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingcurvemesh.building_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>building.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingmesh.build_mesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingmesh.building_mesh1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingmesh.updateing_mesh1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingmesh.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingmesh.build_broke_mesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mesh.id,int,?,?,?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>building.return_cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[item.id,int,?,?,?],[0,?,?,?,?]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>building.update_cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>building.repair_cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop.drop_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[int,item.id,int,int]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.main_property_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>propertypools.property_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.base_property_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgeformula.item_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>forgeformula.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blueprint_id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>forgeformula.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>material</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[int,item.id,int,?,?,?]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForgeList.ForgeFormula_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[forgeformula.item_id,?.?]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityUpgrade.ability_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityDataTable.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentUpgrade.talent_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentDataTable.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopgoods.ItemID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>shop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.FixedGoods</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[item.id,?.?]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop.RandowGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +239,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -86,9 +279,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -390,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -407,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -415,24 +617,212 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
